--- a/Sprint 1/Package 1/Documentation/P01-JE-06_Jeu_etc_CP.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01-JE-06_Jeu_etc_CP.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Utilisateur\Dropbox\Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\Projet_v2\Sprint 1\Package 1\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405" tabRatio="633" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="633" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="C tblMode" sheetId="1" r:id="rId1"/>
     <sheet name="C tblTheme" sheetId="2" r:id="rId2"/>
     <sheet name="C tblThemeJeu" sheetId="4" r:id="rId3"/>
     <sheet name="C tblJeuSemblable" sheetId="5" r:id="rId4"/>
-    <sheet name="tblPlateformeJeu" sheetId="6" r:id="rId5"/>
+    <sheet name="C tblPlateformeJeu" sheetId="6" r:id="rId5"/>
     <sheet name="C tblGenre" sheetId="8" r:id="rId6"/>
     <sheet name="C tblJeu" sheetId="3" r:id="rId7"/>
     <sheet name="C tblVersion" sheetId="7" r:id="rId8"/>
@@ -2836,13 +2836,13 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="106.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="106.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2911,13 +2911,13 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>308</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>311</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>314</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>315</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>320</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>321</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>322</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>323</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>324</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>325</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>326</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>327</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>328</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>329</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>330</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>331</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>332</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>333</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>334</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>335</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>336</v>
       </c>
@@ -5647,12 +5647,12 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>171</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>163</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>288</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>320</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>128</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>288</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>128</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>288</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>128</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>288</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>27</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>27</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>27</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>163</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>163</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>296</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>296</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>296</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>296</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>296</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>296</v>
       </c>
@@ -5828,12 +5828,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C23" s="18" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>123</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>128</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>288</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>123</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>128</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>288</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>9</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>135</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>164</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>9</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>135</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>164</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>162</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>156</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>156</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>4</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>56</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>98</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>105</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>56</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>98</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>105</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>139</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>219</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>240</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>288</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>76</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>89</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>76</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>89</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>105</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>117</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>120</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>139</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>139</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>27</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>78</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>210</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>298</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>329</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>27</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>78</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>210</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>298</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>329</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>27</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>78</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>210</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>298</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>329</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>4</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>53</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>139</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>163</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>168</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>268</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>230</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>3</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>4</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>53</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>139</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>163</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>168</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>268</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>230</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>162</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>288</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>162</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>288</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>162</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>288</v>
       </c>
@@ -6430,14 +6430,14 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>382</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>11</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>14</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>14</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>15</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>16</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>29</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>31</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>34</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>36</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>39</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>43</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>43</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>47</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>48</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>48</v>
       </c>
@@ -6631,18 +6631,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>348</v>
       </c>
@@ -6651,7 +6651,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>2</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>2</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>2</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>2</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>7</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>8</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>9</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>9</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>9</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>9</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>10</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>10</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>10</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>10</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>11</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>11</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>11</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>11</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>12</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>12</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>12</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>12</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>13</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>13</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>13</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>13</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>14</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>14</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>15</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>15</v>
       </c>
@@ -6996,7 +6996,7 @@
       </c>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>16</v>
       </c>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>16</v>
       </c>
@@ -7013,6 +7013,878 @@
         <v>16</v>
       </c>
       <c r="C46" s="4"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>29</v>
+      </c>
+      <c r="B48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>29</v>
+      </c>
+      <c r="B49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>29</v>
+      </c>
+      <c r="B50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>29</v>
+      </c>
+      <c r="B51">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>30</v>
+      </c>
+      <c r="B52">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>30</v>
+      </c>
+      <c r="B53">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>30</v>
+      </c>
+      <c r="B54">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>30</v>
+      </c>
+      <c r="B55">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>31</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>31</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>31</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>31</v>
+      </c>
+      <c r="B59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>31</v>
+      </c>
+      <c r="B60">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>32</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>32</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>32</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>32</v>
+      </c>
+      <c r="B64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>32</v>
+      </c>
+      <c r="B65">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>33</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>33</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>33</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>33</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>33</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>33</v>
+      </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>33</v>
+      </c>
+      <c r="B72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>33</v>
+      </c>
+      <c r="B73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>33</v>
+      </c>
+      <c r="B74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>33</v>
+      </c>
+      <c r="B75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>33</v>
+      </c>
+      <c r="B76">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>33</v>
+      </c>
+      <c r="B77">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>33</v>
+      </c>
+      <c r="B78">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>34</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>34</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>34</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>34</v>
+      </c>
+      <c r="B82">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>34</v>
+      </c>
+      <c r="B83">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>34</v>
+      </c>
+      <c r="B84">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>35</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>35</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>35</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>35</v>
+      </c>
+      <c r="B88">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>35</v>
+      </c>
+      <c r="B89">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>35</v>
+      </c>
+      <c r="B90">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>36</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>36</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>36</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>36</v>
+      </c>
+      <c r="B94">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>36</v>
+      </c>
+      <c r="B95">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>37</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>37</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>37</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>37</v>
+      </c>
+      <c r="B99">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>37</v>
+      </c>
+      <c r="B100">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>38</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>38</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>38</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>39</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>39</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>39</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>39</v>
+      </c>
+      <c r="B107">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>39</v>
+      </c>
+      <c r="B108">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>39</v>
+      </c>
+      <c r="B109">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>40</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>40</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>40</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>40</v>
+      </c>
+      <c r="B113">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>40</v>
+      </c>
+      <c r="B114">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>40</v>
+      </c>
+      <c r="B115">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>41</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>41</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>41</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>41</v>
+      </c>
+      <c r="B119">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>41</v>
+      </c>
+      <c r="B120">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>42</v>
+      </c>
+      <c r="B121">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>43</v>
+      </c>
+      <c r="B122">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>44</v>
+      </c>
+      <c r="B123">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>45</v>
+      </c>
+      <c r="B124">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>46</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>46</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>46</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>46</v>
+      </c>
+      <c r="B128">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>46</v>
+      </c>
+      <c r="B129">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>47</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>47</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>47</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>47</v>
+      </c>
+      <c r="B133">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>47</v>
+      </c>
+      <c r="B134">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>47</v>
+      </c>
+      <c r="B135">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>48</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>48</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>48</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>48</v>
+      </c>
+      <c r="B139">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>48</v>
+      </c>
+      <c r="B140">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>48</v>
+      </c>
+      <c r="B141">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>48</v>
+      </c>
+      <c r="B142">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>49</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>49</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>49</v>
+      </c>
+      <c r="B145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>49</v>
+      </c>
+      <c r="B146">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>49</v>
+      </c>
+      <c r="B147">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>49</v>
+      </c>
+      <c r="B148">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>49</v>
+      </c>
+      <c r="B149">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>50</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>50</v>
+      </c>
+      <c r="B151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>50</v>
+      </c>
+      <c r="B152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>50</v>
+      </c>
+      <c r="B153">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>50</v>
+      </c>
+      <c r="B154">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>50</v>
+      </c>
+      <c r="B155">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>50</v>
+      </c>
+      <c r="B156">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7028,14 +7900,14 @@
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="46.85546875" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" customWidth="1"/>
-    <col min="6" max="6" width="64.85546875" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" customWidth="1"/>
+    <col min="3" max="3" width="52.109375" customWidth="1"/>
+    <col min="6" max="6" width="64.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>353</v>
       </c>
@@ -7046,7 +7918,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7057,7 +7929,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7065,7 +7937,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7073,7 +7945,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7081,7 +7953,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7089,7 +7961,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7100,7 +7972,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7111,7 +7983,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7122,7 +7994,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7133,7 +8005,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7141,7 +8013,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7149,7 +8021,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7157,7 +8029,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7165,7 +8037,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7173,7 +8045,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7181,7 +8053,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7189,7 +8061,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7197,7 +8069,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7205,7 +8077,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7213,7 +8085,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7221,7 +8093,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7229,7 +8101,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7237,7 +8109,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7245,7 +8117,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7253,7 +8125,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7264,7 +8136,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7272,7 +8144,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7280,7 +8152,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7288,7 +8160,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7296,7 +8168,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7304,7 +8176,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7312,7 +8184,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7320,7 +8192,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7328,7 +8200,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7336,7 +8208,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7344,7 +8216,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -7352,7 +8224,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -7360,7 +8232,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -7368,7 +8240,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -7376,7 +8248,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -7384,7 +8256,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -7395,7 +8267,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -7403,7 +8275,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -7424,14 +8296,14 @@
       <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="47.42578125" customWidth="1"/>
-    <col min="3" max="3" width="88.42578125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="255.5703125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" customWidth="1"/>
+    <col min="3" max="3" width="88.44140625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="255.5546875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>348</v>
       </c>
@@ -7460,7 +8332,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7486,7 +8358,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7512,7 +8384,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7538,7 +8410,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7564,7 +8436,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7590,7 +8462,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7616,7 +8488,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7642,7 +8514,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7668,7 +8540,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7694,7 +8566,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7720,7 +8592,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7746,7 +8618,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7772,7 +8644,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7798,7 +8670,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7824,7 +8696,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7850,7 +8722,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7876,67 +8748,67 @@
         <v>380</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7962,7 +8834,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7988,7 +8860,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8014,7 +8886,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8040,7 +8912,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -8066,7 +8938,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -8092,7 +8964,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -8118,7 +8990,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -8144,7 +9016,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -8170,7 +9042,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -8196,7 +9068,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -8222,7 +9094,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -8248,7 +9120,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -8274,7 +9146,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -8300,7 +9172,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -8326,7 +9198,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -8352,7 +9224,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -8378,7 +9250,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -8404,7 +9276,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -8430,7 +9302,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -8456,7 +9328,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -8482,7 +9354,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -8522,17 +9394,17 @@
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="78.28515625" customWidth="1"/>
+    <col min="3" max="3" width="78.33203125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>388</v>
       </c>
@@ -8558,7 +9430,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>395</v>
       </c>
@@ -8581,7 +9453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>398</v>
       </c>
@@ -8604,7 +9476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>401</v>
       </c>
@@ -8627,7 +9499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>403</v>
       </c>
@@ -8650,7 +9522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>409</v>
       </c>
@@ -8673,7 +9545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>412</v>
       </c>
@@ -8696,7 +9568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>413</v>
       </c>
@@ -8719,7 +9591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>414</v>
       </c>
@@ -8742,7 +9614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>421</v>
       </c>
@@ -8765,7 +9637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>422</v>
       </c>
@@ -8788,7 +9660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>423</v>
       </c>
@@ -8811,7 +9683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>424</v>
       </c>
@@ -8834,7 +9706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>426</v>
       </c>
@@ -8857,7 +9729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>425</v>
       </c>
@@ -8881,7 +9753,7 @@
       </c>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>439</v>
       </c>
@@ -8904,7 +9776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>442</v>
       </c>
@@ -8927,7 +9799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>444</v>
       </c>
@@ -8950,7 +9822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>445</v>
       </c>
@@ -8973,7 +9845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>449</v>
       </c>
@@ -8999,7 +9871,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>450</v>
       </c>
@@ -9022,7 +9894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>458</v>
       </c>
@@ -9045,7 +9917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>461</v>
       </c>
@@ -9068,7 +9940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>464</v>
       </c>
@@ -9091,7 +9963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>467</v>
       </c>
@@ -9114,7 +9986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>470</v>
       </c>
@@ -9137,7 +10009,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>473</v>
       </c>
@@ -9160,7 +10032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>474</v>
       </c>
@@ -9183,7 +10055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>476</v>
       </c>
@@ -9206,7 +10078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>475</v>
       </c>
@@ -9229,7 +10101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>481</v>
       </c>
@@ -9252,7 +10124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>482</v>
       </c>
@@ -9275,7 +10147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>483</v>
       </c>
@@ -9298,7 +10170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>484</v>
       </c>
@@ -9321,7 +10193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>485</v>
       </c>
@@ -9344,7 +10216,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>486</v>
       </c>
@@ -9367,7 +10239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>606</v>
       </c>
@@ -9390,7 +10262,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>609</v>
       </c>
@@ -9413,7 +10285,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>612</v>
       </c>
@@ -9436,7 +10308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>615</v>
       </c>
@@ -9459,7 +10331,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>618</v>
       </c>
@@ -9482,7 +10354,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>620</v>
       </c>
@@ -9505,7 +10377,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>622</v>
       </c>
@@ -9528,7 +10400,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>623</v>
       </c>
@@ -9551,7 +10423,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>630</v>
       </c>
@@ -9574,7 +10446,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>636</v>
       </c>
@@ -9597,7 +10469,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>637</v>
       </c>
@@ -9620,7 +10492,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>640</v>
       </c>
@@ -9643,7 +10515,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>642</v>
       </c>
@@ -9666,7 +10538,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>644</v>
       </c>
@@ -9689,7 +10561,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>646</v>
       </c>
@@ -9712,7 +10584,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>647</v>
       </c>
@@ -9735,7 +10607,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>648</v>
       </c>
@@ -9758,7 +10630,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>658</v>
       </c>
@@ -9781,7 +10653,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>660</v>
       </c>
@@ -9804,7 +10676,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>664</v>
       </c>
@@ -9827,7 +10699,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>665</v>
       </c>
@@ -9850,7 +10722,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>670</v>
       </c>
@@ -9873,7 +10745,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>673</v>
       </c>
@@ -9896,7 +10768,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>675</v>
       </c>
@@ -9919,7 +10791,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>679</v>
       </c>
@@ -9942,7 +10814,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>682</v>
       </c>
@@ -9965,7 +10837,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>684</v>
       </c>
@@ -9988,7 +10860,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>688</v>
       </c>
@@ -10011,7 +10883,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>689</v>
       </c>
@@ -10034,7 +10906,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>690</v>
       </c>
@@ -10057,7 +10929,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>697</v>
       </c>
@@ -10080,7 +10952,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>700</v>
       </c>
@@ -10103,7 +10975,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>703</v>
       </c>
@@ -10126,7 +10998,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>706</v>
       </c>
@@ -10149,7 +11021,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>709</v>
       </c>
@@ -10172,7 +11044,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>711</v>
       </c>
@@ -10195,7 +11067,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>715</v>
       </c>
@@ -10218,7 +11090,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>716</v>
       </c>
@@ -10241,7 +11113,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>717</v>
       </c>
@@ -10264,7 +11136,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>718</v>
       </c>
@@ -10287,7 +11159,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>719</v>
       </c>
@@ -10310,7 +11182,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>720</v>
       </c>
@@ -10333,7 +11205,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>736</v>
       </c>
@@ -10356,7 +11228,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>737</v>
       </c>
@@ -10379,7 +11251,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>738</v>
       </c>
@@ -10402,7 +11274,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>739</v>
       </c>
@@ -10425,7 +11297,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>745</v>
       </c>
@@ -10448,7 +11320,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>747</v>
       </c>
@@ -10471,7 +11343,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>751</v>
       </c>
@@ -10494,7 +11366,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>752</v>
       </c>
@@ -10517,7 +11389,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>753</v>
       </c>
@@ -10540,7 +11412,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>754</v>
       </c>
@@ -10563,7 +11435,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>755</v>
       </c>
@@ -10586,7 +11458,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>756</v>
       </c>

--- a/Sprint 1/Package 1/Documentation/P01-JE-06_Jeu_etc_CP.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01-JE-06_Jeu_etc_CP.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\Projet_v2\Sprint 1\Package 1\Documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="633" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="633" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="C tblMode" sheetId="1" r:id="rId1"/>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="868">
   <si>
     <t>IdMode</t>
   </si>
@@ -2341,6 +2336,300 @@
   </si>
   <si>
     <t>jeu de guillaume</t>
+  </si>
+  <si>
+    <t>FAL3SS01</t>
+  </si>
+  <si>
+    <t>Fallout 3 Solo 1.0</t>
+  </si>
+  <si>
+    <t>Fixer erreurs dans Megaton, Ajout customisation</t>
+  </si>
+  <si>
+    <t>FAL3SS02</t>
+  </si>
+  <si>
+    <t>Fallout 3 Solo 1.1</t>
+  </si>
+  <si>
+    <t>Ajout du sexe féminin, Ajout de toutes les armes</t>
+  </si>
+  <si>
+    <t>FAL3SS03</t>
+  </si>
+  <si>
+    <t>Fallout 3 Solo 2.0</t>
+  </si>
+  <si>
+    <t>Finalisation des graphiques, assignation des commandes</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>BOR1SS01</t>
+  </si>
+  <si>
+    <t>Bordelands Solo 1.0</t>
+  </si>
+  <si>
+    <t>Retrait de la classe sirène(trop de bugs), ajout du tutoriel</t>
+  </si>
+  <si>
+    <t>BOR1SS02</t>
+  </si>
+  <si>
+    <t>Bordelands Solo 1.1</t>
+  </si>
+  <si>
+    <t>Ajout des scripts de clap trap, Classe sirène remise</t>
+  </si>
+  <si>
+    <t>BOR1ML01</t>
+  </si>
+  <si>
+    <t>Bordelands Multi en local 1.0</t>
+  </si>
+  <si>
+    <t>Ajout fonctionnalités de profils</t>
+  </si>
+  <si>
+    <t>BOR1MO01</t>
+  </si>
+  <si>
+    <t>Borderlands Multi en ligne 1.0</t>
+  </si>
+  <si>
+    <t>Correction de bugs concernant la synchronisation des comptes</t>
+  </si>
+  <si>
+    <t>BOR1MO02</t>
+  </si>
+  <si>
+    <t>Borderlands Multi en ligne 1.1</t>
+  </si>
+  <si>
+    <t>Fixation des taux de drop, nerf sirène</t>
+  </si>
+  <si>
+    <t>SC5SS01</t>
+  </si>
+  <si>
+    <t>Soul Calibur 5 Solo 1.0</t>
+  </si>
+  <si>
+    <t>Fixer bug avec Raphaël</t>
+  </si>
+  <si>
+    <t>SC5SS02</t>
+  </si>
+  <si>
+    <t>Soul Calibur 5 Solo 1.1</t>
+  </si>
+  <si>
+    <t>Ajout des personnages spéciaux</t>
+  </si>
+  <si>
+    <t>Pre-Release</t>
+  </si>
+  <si>
+    <t>SC5ML01</t>
+  </si>
+  <si>
+    <t>Soul Calibur 5 Multi en local 1.0</t>
+  </si>
+  <si>
+    <t>Ajout du support de plusieurs manettes</t>
+  </si>
+  <si>
+    <t>SC5ML02</t>
+  </si>
+  <si>
+    <t>Soul Calibur 5 Multi en local 1.1</t>
+  </si>
+  <si>
+    <t>Fixer les couleurs lors du même personnage</t>
+  </si>
+  <si>
+    <t>SC5MO01</t>
+  </si>
+  <si>
+    <t>Soul Calibur 5 Multi en ligne 1.0</t>
+  </si>
+  <si>
+    <t>Amélioration de la synchronisation</t>
+  </si>
+  <si>
+    <t>SC5MO02</t>
+  </si>
+  <si>
+    <t>Soul Calibur 5 Multi en ligne 1.1</t>
+  </si>
+  <si>
+    <t>Optimisation des échanges de données</t>
+  </si>
+  <si>
+    <t>SC5MO03</t>
+  </si>
+  <si>
+    <t>Soul Calibur 5 Multi en ligne 2.0</t>
+  </si>
+  <si>
+    <t>Mise en test totale</t>
+  </si>
+  <si>
+    <t>NUNS3S01</t>
+  </si>
+  <si>
+    <t>Naruto Shippuden : Ultimate Ninja Storm Solo 1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrait du personnage Sasuke </t>
+  </si>
+  <si>
+    <t>NUNS3S02</t>
+  </si>
+  <si>
+    <t>Naruto Shippuden : Ultimate Ninja Storm Solo 1.1</t>
+  </si>
+  <si>
+    <t>Ré-intégration du personnage Sasuke, fixer bugs multiples</t>
+  </si>
+  <si>
+    <t>NUNS3ML01</t>
+  </si>
+  <si>
+    <t>Naruto Shippuden : Ultimate Ninja Storm Multi en local 1.0</t>
+  </si>
+  <si>
+    <t>Ajout des combats avec aliés</t>
+  </si>
+  <si>
+    <t>NUNS3ML02</t>
+  </si>
+  <si>
+    <t>Naruto Shippuden : Ultimate Ninja Storm Multi en local 1.1</t>
+  </si>
+  <si>
+    <t>Fixer la taille des maps</t>
+  </si>
+  <si>
+    <t>NUNS3MO01</t>
+  </si>
+  <si>
+    <t>Naruto Shippuden : Ultimate Ninja Storm Multi en ligne 1.0</t>
+  </si>
+  <si>
+    <t>Fixer la connection aux serveurs</t>
+  </si>
+  <si>
+    <t>NUNS3MO02</t>
+  </si>
+  <si>
+    <t>Naruto Shippuden : Ultimate Ninja Storm Multi en ligne 1.1</t>
+  </si>
+  <si>
+    <t>SKYRS01</t>
+  </si>
+  <si>
+    <t>The Elder Scrolls V : Skyrim Solo 1.0</t>
+  </si>
+  <si>
+    <t>Retrait du saut lors de montée de montagne</t>
+  </si>
+  <si>
+    <t>SKYRS02</t>
+  </si>
+  <si>
+    <t>The Elder Scrolls V : Skyrim Solo 1.1</t>
+  </si>
+  <si>
+    <t>Amélioration du déplacement des chevaux</t>
+  </si>
+  <si>
+    <t>OBLIVS01</t>
+  </si>
+  <si>
+    <t>The Elder Scrolls IV : Oblivion Solo 1.0</t>
+  </si>
+  <si>
+    <t>Retrait de la classe Goblin</t>
+  </si>
+  <si>
+    <t>OBLIVS02</t>
+  </si>
+  <si>
+    <t>The Elder Scrolls IV : Oblivion Solo 1.1</t>
+  </si>
+  <si>
+    <t>Ajout de 3 nouvelles classes, fixer des bugs de sprites</t>
+  </si>
+  <si>
+    <t>Fallout 3</t>
+  </si>
+  <si>
+    <t>Jeu de Survie Post-Apocalyptique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fallout 3 est un jeu de rôle en 3D se déroulant dans un monde post-apocalyptique. Le joueur y fait évoluer son personnage comme il le souhaite et choisit la façon dont il va communiquer et interagir avec les autres personnages. </t>
+  </si>
+  <si>
+    <t>Borderlands Solo</t>
+  </si>
+  <si>
+    <t>Jeu d'aventure dans un univers Steampunk</t>
+  </si>
+  <si>
+    <t>Borderlands est un jeu de tir à la première personne mâtiné de jeu de rôle (expérience, spécialisations) qui vous entraîne sur une planète mystérieuse, aux allures de Far West futuriste</t>
+  </si>
+  <si>
+    <t>Bordelands Multi Local</t>
+  </si>
+  <si>
+    <t>Bordelands Multi En Ligne</t>
+  </si>
+  <si>
+    <t>Soul Calibur 5 Solo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeu de combat </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jeu de combat, SoulCalibur V est le septième épisode de la célèbre franchise "Soul" placé sous le signe du renouveau. Prenant place 17 ans après les événements de SoulCalibur IV, c'est au tour de Patroklos, le fils de Sophitia, de rejoindre la quête de la Soul Edge</t>
+  </si>
+  <si>
+    <t>Soul Calibur 5 Multi En Local</t>
+  </si>
+  <si>
+    <t>Soul Calibur 5 Multi En Ligne</t>
+  </si>
+  <si>
+    <t>Naruto Shippuden : Ultimate Ninja Storm 3 Solo</t>
+  </si>
+  <si>
+    <t>Jeu d'aventure et de combat, Naruto Shippuden : Ultimate Ninja Storm 3 reprend les bases du gameplay de la série en y ajoutant quelques nouveautés, comme les actions cachées, les combats de horde ou encore les décisions ultimes qui offrent diverses possibilités</t>
+  </si>
+  <si>
+    <t>Naruto Shippuden : Ultimate Ninja Storm 3 Multi En Local</t>
+  </si>
+  <si>
+    <t>Naruto Shippuden : Ultimate Ninja Storm 3 Multi En Ligne</t>
+  </si>
+  <si>
+    <t>The Elder Scrolls V : Skyrim</t>
+  </si>
+  <si>
+    <t>Jeu de découverte dans un univers médiéval</t>
+  </si>
+  <si>
+    <t>L'histoire se déroule dans la contrée de Skyrim, près de 200 ans après les événements narrés dans le précédent opus. L'assassinat du Haut-Roi de Bordeciel a plongé le pays dans la guerre civile et pour couronner le tout, c'est le moment que choisit Alduin pour réapparaître.</t>
+  </si>
+  <si>
+    <t>The Elder Scrolls IV : Oblivion</t>
+  </si>
+  <si>
+    <t>Jeu de rôle se passant dans un grand monde ouvert, The Elder Scrolls IV : Oblivion permet au joueur d'incarner un héros guerrier. Il peut explorer la carte gigantesque pour découvrir des donjons, vaincre des boss, découvrir des trésors fabuleux, et accomplir des quêtes.</t>
   </si>
 </sst>
 </file>
@@ -2822,7 +3111,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6633,7 +6922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
@@ -8292,8 +8581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C58" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8752,60 +9041,312 @@
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>846</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>847</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>361</v>
+      </c>
+      <c r="G18">
+        <v>43</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19" t="s">
+        <v>849</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>850</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>361</v>
+      </c>
+      <c r="G19">
+        <v>43</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>851</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20" t="s">
+        <v>852</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>850</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>361</v>
+      </c>
+      <c r="G20">
+        <v>43</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>851</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21" t="s">
+        <v>853</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>850</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>361</v>
+      </c>
+      <c r="G21">
+        <v>43</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>851</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22" t="s">
+        <v>854</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>855</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>371</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23" t="s">
+        <v>857</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>855</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>371</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="B24" t="s">
+        <v>858</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>855</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>371</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25" t="s">
+        <v>859</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>855</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>371</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26" t="s">
+        <v>861</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>855</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>371</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
+      <c r="B27" t="s">
+        <v>862</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>855</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>371</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="B28" t="s">
+        <v>863</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>864</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>361</v>
+      </c>
+      <c r="G28">
+        <v>19</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>865</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>866</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>864</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>361</v>
+      </c>
+      <c r="G29">
+        <v>19</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -9388,16 +9929,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J38" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" customWidth="1"/>
     <col min="3" max="3" width="78.33203125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="6" max="6" width="13.44140625" customWidth="1"/>
@@ -10239,1245 +10780,1820 @@
         <v>16</v>
       </c>
     </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>770</v>
+      </c>
+      <c r="B37" t="s">
+        <v>771</v>
+      </c>
+      <c r="C37" t="s">
+        <v>772</v>
+      </c>
+      <c r="D37" t="s">
+        <v>400</v>
+      </c>
+      <c r="E37">
+        <v>20080911</v>
+      </c>
+      <c r="F37">
+        <v>20081028</v>
+      </c>
+      <c r="H37">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>773</v>
+      </c>
+      <c r="B38" t="s">
+        <v>774</v>
+      </c>
+      <c r="C38" t="s">
+        <v>775</v>
+      </c>
+      <c r="D38" t="s">
+        <v>397</v>
+      </c>
+      <c r="E38">
+        <v>20081005</v>
+      </c>
+      <c r="F38">
+        <v>20081028</v>
+      </c>
+      <c r="H38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>776</v>
+      </c>
+      <c r="B39" t="s">
+        <v>777</v>
+      </c>
+      <c r="C39" t="s">
+        <v>778</v>
+      </c>
+      <c r="D39" t="s">
+        <v>779</v>
+      </c>
+      <c r="E39">
+        <v>20081013</v>
+      </c>
+      <c r="F39">
+        <v>20081028</v>
+      </c>
+      <c r="H39">
+        <v>17</v>
+      </c>
+    </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>606</v>
+        <v>780</v>
       </c>
       <c r="B40" t="s">
-        <v>607</v>
+        <v>781</v>
       </c>
       <c r="C40" t="s">
-        <v>608</v>
+        <v>782</v>
       </c>
       <c r="D40" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E40">
-        <v>20100214</v>
+        <v>20081011</v>
       </c>
       <c r="F40">
-        <v>20140909</v>
+        <v>20091020</v>
       </c>
       <c r="H40">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>609</v>
+        <v>783</v>
       </c>
       <c r="B41" t="s">
-        <v>610</v>
+        <v>784</v>
       </c>
       <c r="C41" t="s">
-        <v>611</v>
+        <v>785</v>
       </c>
       <c r="D41" t="s">
         <v>397</v>
       </c>
       <c r="E41">
-        <v>20110214</v>
+        <v>20081101</v>
       </c>
       <c r="F41">
-        <v>20140909</v>
+        <v>20091020</v>
       </c>
       <c r="H41">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>612</v>
+        <v>786</v>
       </c>
       <c r="B42" t="s">
-        <v>613</v>
+        <v>787</v>
       </c>
       <c r="C42" t="s">
-        <v>614</v>
+        <v>788</v>
       </c>
       <c r="D42" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E42">
-        <v>20150115</v>
+        <v>20081015</v>
       </c>
       <c r="F42">
-        <v>20150915</v>
+        <v>20091020</v>
       </c>
       <c r="H42">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>615</v>
+        <v>789</v>
       </c>
       <c r="B43" t="s">
-        <v>616</v>
+        <v>790</v>
       </c>
       <c r="C43" t="s">
-        <v>617</v>
+        <v>791</v>
       </c>
       <c r="D43" t="s">
         <v>400</v>
       </c>
       <c r="E43">
-        <v>20150605</v>
+        <v>20081123</v>
       </c>
       <c r="F43">
-        <v>20150915</v>
+        <v>20091020</v>
       </c>
       <c r="H43">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>618</v>
+        <v>792</v>
       </c>
       <c r="B44" t="s">
-        <v>629</v>
+        <v>793</v>
       </c>
       <c r="C44" t="s">
-        <v>619</v>
+        <v>794</v>
       </c>
       <c r="D44" t="s">
         <v>397</v>
       </c>
       <c r="E44">
-        <v>20150112</v>
+        <v>20091210</v>
       </c>
       <c r="F44">
-        <v>20151023</v>
+        <v>20091020</v>
       </c>
       <c r="H44">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>620</v>
+        <v>795</v>
       </c>
       <c r="B45" t="s">
-        <v>628</v>
+        <v>796</v>
       </c>
       <c r="C45" t="s">
-        <v>621</v>
+        <v>797</v>
       </c>
       <c r="D45" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E45">
-        <v>20150905</v>
+        <v>20110713</v>
       </c>
       <c r="F45">
-        <v>20151023</v>
+        <v>20120131</v>
       </c>
       <c r="H45">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>622</v>
+        <v>798</v>
       </c>
       <c r="B46" t="s">
-        <v>626</v>
+        <v>799</v>
       </c>
       <c r="C46" t="s">
-        <v>624</v>
+        <v>800</v>
       </c>
       <c r="D46" t="s">
-        <v>397</v>
+        <v>801</v>
       </c>
       <c r="E46">
-        <v>20150112</v>
+        <v>20110827</v>
       </c>
       <c r="F46">
-        <v>20151023</v>
+        <v>20120131</v>
       </c>
       <c r="H46">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>623</v>
+        <v>802</v>
       </c>
       <c r="B47" t="s">
-        <v>627</v>
+        <v>803</v>
       </c>
       <c r="C47" t="s">
-        <v>625</v>
+        <v>804</v>
       </c>
       <c r="D47" t="s">
         <v>400</v>
       </c>
       <c r="E47">
-        <v>20150905</v>
+        <v>20110829</v>
       </c>
       <c r="F47">
-        <v>20151023</v>
+        <v>20120131</v>
       </c>
       <c r="H47">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>630</v>
+        <v>805</v>
       </c>
       <c r="B48" t="s">
-        <v>631</v>
+        <v>806</v>
       </c>
       <c r="C48" t="s">
-        <v>632</v>
+        <v>807</v>
       </c>
       <c r="D48" t="s">
         <v>397</v>
       </c>
       <c r="E48">
-        <v>20091103</v>
+        <v>20110914</v>
       </c>
       <c r="F48">
-        <v>20110413</v>
+        <v>20120131</v>
       </c>
       <c r="H48">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>636</v>
+        <v>808</v>
       </c>
       <c r="B49" t="s">
-        <v>633</v>
+        <v>809</v>
       </c>
       <c r="C49" t="s">
-        <v>638</v>
+        <v>810</v>
       </c>
       <c r="D49" t="s">
         <v>400</v>
       </c>
       <c r="E49">
-        <v>20100612</v>
+        <v>20111007</v>
       </c>
       <c r="F49">
-        <v>20110413</v>
+        <v>20120131</v>
       </c>
       <c r="H49">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>637</v>
+        <v>811</v>
       </c>
       <c r="B50" t="s">
-        <v>634</v>
+        <v>812</v>
       </c>
       <c r="C50" t="s">
-        <v>639</v>
+        <v>813</v>
       </c>
       <c r="D50" t="s">
-        <v>635</v>
+        <v>801</v>
       </c>
       <c r="E50">
-        <v>20120115</v>
+        <v>20111129</v>
       </c>
       <c r="F50">
-        <v>20110413</v>
+        <v>20120131</v>
       </c>
       <c r="H50">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>640</v>
+        <v>814</v>
       </c>
       <c r="B51" t="s">
-        <v>641</v>
+        <v>815</v>
       </c>
       <c r="C51" t="s">
-        <v>652</v>
+        <v>816</v>
       </c>
       <c r="D51" t="s">
-        <v>397</v>
+        <v>779</v>
       </c>
       <c r="E51">
-        <v>20080528</v>
+        <v>20120103</v>
       </c>
       <c r="F51">
-        <v>20120821</v>
+        <v>20120131</v>
       </c>
       <c r="H51">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>642</v>
+        <v>817</v>
       </c>
       <c r="B52" t="s">
-        <v>643</v>
+        <v>818</v>
       </c>
       <c r="C52" t="s">
-        <v>653</v>
+        <v>819</v>
       </c>
       <c r="D52" t="s">
         <v>400</v>
       </c>
       <c r="E52">
-        <v>20100102</v>
+        <v>20121109</v>
       </c>
       <c r="F52">
-        <v>20120821</v>
+        <v>20130305</v>
       </c>
       <c r="H52">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>644</v>
+        <v>820</v>
       </c>
       <c r="B53" t="s">
-        <v>645</v>
+        <v>821</v>
       </c>
       <c r="C53" t="s">
-        <v>654</v>
+        <v>822</v>
       </c>
       <c r="D53" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E53">
-        <v>20110312</v>
+        <v>20121127</v>
       </c>
       <c r="F53">
-        <v>20120821</v>
+        <v>20130305</v>
       </c>
       <c r="H53">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>646</v>
+        <v>823</v>
       </c>
       <c r="B54" t="s">
-        <v>649</v>
+        <v>824</v>
       </c>
       <c r="C54" t="s">
-        <v>655</v>
+        <v>825</v>
       </c>
       <c r="D54" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E54">
-        <v>20080528</v>
+        <v>20130115</v>
       </c>
       <c r="F54">
-        <v>20120821</v>
+        <v>20130305</v>
       </c>
       <c r="H54">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>647</v>
+        <v>826</v>
       </c>
       <c r="B55" t="s">
-        <v>650</v>
+        <v>827</v>
       </c>
       <c r="C55" t="s">
-        <v>656</v>
+        <v>828</v>
       </c>
       <c r="D55" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E55">
-        <v>20100102</v>
+        <v>20130201</v>
       </c>
       <c r="F55">
-        <v>20120821</v>
+        <v>20130305</v>
       </c>
       <c r="H55">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>648</v>
+        <v>829</v>
       </c>
       <c r="B56" t="s">
-        <v>651</v>
+        <v>830</v>
       </c>
       <c r="C56" t="s">
-        <v>657</v>
+        <v>831</v>
       </c>
       <c r="D56" t="s">
         <v>400</v>
       </c>
       <c r="E56">
-        <v>20110312</v>
+        <v>20130212</v>
       </c>
       <c r="F56">
-        <v>20120821</v>
+        <v>20130305</v>
       </c>
       <c r="H56">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>658</v>
+        <v>832</v>
       </c>
       <c r="B57" t="s">
-        <v>659</v>
+        <v>833</v>
       </c>
       <c r="C57" t="s">
-        <v>663</v>
+        <v>813</v>
       </c>
       <c r="D57" t="s">
         <v>397</v>
       </c>
       <c r="E57">
-        <v>20120213</v>
+        <v>20130224</v>
       </c>
       <c r="F57">
-        <v>20140311</v>
+        <v>20130305</v>
       </c>
       <c r="H57">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>660</v>
+        <v>834</v>
       </c>
       <c r="B58" t="s">
-        <v>661</v>
+        <v>835</v>
       </c>
       <c r="C58" t="s">
-        <v>662</v>
+        <v>836</v>
       </c>
       <c r="D58" t="s">
         <v>397</v>
       </c>
       <c r="E58">
-        <v>20130423</v>
+        <v>20110716</v>
       </c>
       <c r="F58">
-        <v>20140311</v>
+        <v>20111111</v>
       </c>
       <c r="H58">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>664</v>
+        <v>837</v>
       </c>
       <c r="B59" t="s">
-        <v>666</v>
+        <v>838</v>
       </c>
       <c r="C59" t="s">
-        <v>668</v>
+        <v>839</v>
       </c>
       <c r="D59" t="s">
-        <v>397</v>
+        <v>801</v>
       </c>
       <c r="E59">
-        <v>20120213</v>
+        <v>20110928</v>
       </c>
       <c r="F59">
-        <v>20140311</v>
+        <v>20111111</v>
       </c>
       <c r="H59">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>665</v>
+        <v>840</v>
       </c>
       <c r="B60" t="s">
-        <v>667</v>
+        <v>841</v>
       </c>
       <c r="C60" t="s">
-        <v>669</v>
+        <v>842</v>
       </c>
       <c r="D60" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E60">
-        <v>20130423</v>
+        <v>20060112</v>
       </c>
       <c r="F60">
-        <v>20140311</v>
+        <v>20060320</v>
       </c>
       <c r="H60">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>670</v>
+        <v>843</v>
       </c>
       <c r="B61" t="s">
-        <v>671</v>
+        <v>844</v>
       </c>
       <c r="C61" t="s">
-        <v>672</v>
+        <v>845</v>
       </c>
       <c r="D61" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E61">
-        <v>20140107</v>
+        <v>20060211</v>
       </c>
       <c r="F61">
-        <v>20150811</v>
+        <v>20060320</v>
       </c>
       <c r="H61">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>673</v>
+        <v>606</v>
       </c>
       <c r="B62" t="s">
-        <v>674</v>
+        <v>607</v>
       </c>
       <c r="C62" t="s">
-        <v>677</v>
+        <v>608</v>
       </c>
       <c r="D62" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E62">
-        <v>20140916</v>
+        <v>20100214</v>
       </c>
       <c r="F62">
-        <v>20150811</v>
+        <v>20140909</v>
       </c>
       <c r="H62">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>675</v>
+        <v>609</v>
       </c>
       <c r="B63" t="s">
-        <v>676</v>
+        <v>610</v>
       </c>
       <c r="C63" t="s">
-        <v>678</v>
+        <v>611</v>
       </c>
       <c r="D63" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E63">
-        <v>20150414</v>
+        <v>20110214</v>
       </c>
       <c r="F63">
-        <v>20150811</v>
+        <v>20140909</v>
       </c>
       <c r="H63">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>679</v>
+        <v>612</v>
       </c>
       <c r="B64" t="s">
-        <v>680</v>
+        <v>613</v>
       </c>
       <c r="C64" t="s">
-        <v>681</v>
+        <v>614</v>
       </c>
       <c r="D64" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E64">
-        <v>20030515</v>
+        <v>20150115</v>
       </c>
       <c r="F64">
-        <v>20070810</v>
+        <v>20150915</v>
       </c>
       <c r="H64">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>682</v>
+        <v>615</v>
       </c>
       <c r="B65" t="s">
-        <v>683</v>
+        <v>616</v>
       </c>
       <c r="C65" t="s">
-        <v>687</v>
+        <v>617</v>
       </c>
       <c r="D65" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E65">
-        <v>20040916</v>
+        <v>20150605</v>
       </c>
       <c r="F65">
-        <v>20070810</v>
+        <v>20150915</v>
       </c>
       <c r="H65">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>684</v>
+        <v>618</v>
       </c>
       <c r="B66" t="s">
-        <v>685</v>
+        <v>629</v>
       </c>
       <c r="C66" t="s">
-        <v>686</v>
+        <v>619</v>
       </c>
       <c r="D66" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E66">
-        <v>20061120</v>
+        <v>20150112</v>
       </c>
       <c r="F66">
-        <v>20070810</v>
+        <v>20151023</v>
       </c>
       <c r="H66">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>688</v>
+        <v>620</v>
       </c>
       <c r="B67" t="s">
-        <v>691</v>
+        <v>628</v>
       </c>
       <c r="C67" t="s">
-        <v>694</v>
+        <v>621</v>
       </c>
       <c r="D67" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E67">
-        <v>20030515</v>
+        <v>20150905</v>
       </c>
       <c r="F67">
-        <v>20070810</v>
+        <v>20151023</v>
       </c>
       <c r="H67">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>689</v>
+        <v>622</v>
       </c>
       <c r="B68" t="s">
-        <v>692</v>
+        <v>626</v>
       </c>
       <c r="C68" t="s">
-        <v>695</v>
+        <v>624</v>
       </c>
       <c r="D68" t="s">
         <v>397</v>
       </c>
       <c r="E68">
-        <v>20040916</v>
+        <v>20150112</v>
       </c>
       <c r="F68">
-        <v>20070810</v>
+        <v>20151023</v>
       </c>
       <c r="H68">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>690</v>
+        <v>623</v>
       </c>
       <c r="B69" t="s">
-        <v>693</v>
+        <v>627</v>
       </c>
       <c r="C69" t="s">
-        <v>696</v>
+        <v>625</v>
       </c>
       <c r="D69" t="s">
         <v>400</v>
       </c>
       <c r="E69">
-        <v>20061120</v>
+        <v>20150905</v>
       </c>
       <c r="F69">
-        <v>20070810</v>
+        <v>20151023</v>
       </c>
       <c r="H69">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>697</v>
+        <v>630</v>
       </c>
       <c r="B70" t="s">
-        <v>698</v>
+        <v>631</v>
       </c>
       <c r="C70" t="s">
-        <v>699</v>
+        <v>632</v>
       </c>
       <c r="D70" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E70">
-        <v>20070616</v>
+        <v>20091103</v>
       </c>
       <c r="F70">
-        <v>20070726</v>
+        <v>20110413</v>
       </c>
       <c r="H70">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>700</v>
+        <v>636</v>
       </c>
       <c r="B71" t="s">
-        <v>701</v>
+        <v>633</v>
       </c>
       <c r="C71" t="s">
-        <v>702</v>
+        <v>638</v>
       </c>
       <c r="D71" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E71">
-        <v>20140213</v>
+        <v>20100612</v>
       </c>
       <c r="F71">
-        <v>20150911</v>
+        <v>20110413</v>
       </c>
       <c r="H71">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>703</v>
+        <v>637</v>
       </c>
       <c r="B72" t="s">
-        <v>704</v>
+        <v>634</v>
       </c>
       <c r="C72" t="s">
-        <v>705</v>
+        <v>639</v>
       </c>
       <c r="D72" t="s">
-        <v>400</v>
+        <v>635</v>
       </c>
       <c r="E72">
-        <v>20150312</v>
+        <v>20120115</v>
       </c>
       <c r="F72">
-        <v>20150911</v>
+        <v>20110413</v>
       </c>
       <c r="H72">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>706</v>
+        <v>640</v>
       </c>
       <c r="B73" t="s">
-        <v>707</v>
+        <v>641</v>
       </c>
       <c r="C73" t="s">
-        <v>708</v>
+        <v>652</v>
       </c>
       <c r="D73" t="s">
         <v>397</v>
       </c>
       <c r="E73">
-        <v>20120102</v>
+        <v>20080528</v>
       </c>
       <c r="F73">
-        <v>20131122</v>
+        <v>20120821</v>
       </c>
       <c r="H73">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>709</v>
+        <v>642</v>
       </c>
       <c r="B74" t="s">
-        <v>710</v>
+        <v>643</v>
       </c>
       <c r="C74" t="s">
-        <v>714</v>
+        <v>653</v>
       </c>
       <c r="D74" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E74">
-        <v>20120522</v>
+        <v>20100102</v>
       </c>
       <c r="F74">
-        <v>20131122</v>
+        <v>20120821</v>
       </c>
       <c r="H74">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>711</v>
+        <v>644</v>
       </c>
       <c r="B75" t="s">
-        <v>712</v>
+        <v>645</v>
       </c>
       <c r="C75" t="s">
-        <v>713</v>
+        <v>654</v>
       </c>
       <c r="D75" t="s">
         <v>400</v>
       </c>
       <c r="E75">
-        <v>20130812</v>
+        <v>20110312</v>
       </c>
       <c r="F75">
-        <v>20131122</v>
+        <v>20120821</v>
       </c>
       <c r="H75">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>715</v>
+        <v>646</v>
       </c>
       <c r="B76" t="s">
-        <v>721</v>
+        <v>649</v>
       </c>
       <c r="C76" t="s">
-        <v>724</v>
+        <v>655</v>
       </c>
       <c r="D76" t="s">
         <v>397</v>
       </c>
       <c r="E76">
-        <v>20120102</v>
+        <v>20080528</v>
       </c>
       <c r="F76">
-        <v>20131122</v>
+        <v>20120821</v>
       </c>
       <c r="H76">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>716</v>
+        <v>647</v>
       </c>
       <c r="B77" t="s">
-        <v>722</v>
+        <v>650</v>
       </c>
       <c r="C77" t="s">
-        <v>725</v>
+        <v>656</v>
       </c>
       <c r="D77" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E77">
-        <v>20120522</v>
+        <v>20100102</v>
       </c>
       <c r="F77">
-        <v>20131122</v>
+        <v>20120821</v>
       </c>
       <c r="H77">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>717</v>
+        <v>648</v>
       </c>
       <c r="B78" t="s">
-        <v>723</v>
+        <v>651</v>
       </c>
       <c r="C78" t="s">
-        <v>726</v>
+        <v>657</v>
       </c>
       <c r="D78" t="s">
         <v>400</v>
       </c>
       <c r="E78">
-        <v>20130812</v>
+        <v>20110312</v>
       </c>
       <c r="F78">
-        <v>20131122</v>
+        <v>20120821</v>
       </c>
       <c r="H78">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>718</v>
+        <v>658</v>
       </c>
       <c r="B79" t="s">
-        <v>727</v>
+        <v>659</v>
       </c>
       <c r="C79" t="s">
-        <v>730</v>
+        <v>663</v>
       </c>
       <c r="D79" t="s">
         <v>397</v>
       </c>
       <c r="E79">
-        <v>20120102</v>
+        <v>20120213</v>
       </c>
       <c r="F79">
-        <v>20131122</v>
+        <v>20140311</v>
       </c>
       <c r="H79">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>719</v>
+        <v>660</v>
       </c>
       <c r="B80" t="s">
-        <v>728</v>
+        <v>661</v>
       </c>
       <c r="C80" t="s">
-        <v>731</v>
+        <v>662</v>
       </c>
       <c r="D80" t="s">
         <v>397</v>
       </c>
       <c r="E80">
-        <v>20120522</v>
+        <v>20130423</v>
       </c>
       <c r="F80">
-        <v>20131122</v>
+        <v>20140311</v>
       </c>
       <c r="H80">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>720</v>
+        <v>664</v>
       </c>
       <c r="B81" t="s">
-        <v>729</v>
+        <v>666</v>
       </c>
       <c r="C81" t="s">
-        <v>732</v>
+        <v>668</v>
       </c>
       <c r="D81" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E81">
-        <v>20130812</v>
+        <v>20120213</v>
       </c>
       <c r="F81">
-        <v>20131122</v>
+        <v>20140311</v>
       </c>
       <c r="H81">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>736</v>
+        <v>665</v>
       </c>
       <c r="B82" t="s">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="C82" t="s">
-        <v>741</v>
+        <v>669</v>
       </c>
       <c r="D82" t="s">
         <v>397</v>
       </c>
       <c r="E82">
-        <v>20110629</v>
+        <v>20130423</v>
       </c>
       <c r="F82">
-        <v>20150519</v>
+        <v>20140311</v>
       </c>
       <c r="H82">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>737</v>
+        <v>670</v>
       </c>
       <c r="B83" t="s">
-        <v>734</v>
+        <v>671</v>
       </c>
       <c r="C83" t="s">
-        <v>742</v>
+        <v>672</v>
       </c>
       <c r="D83" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E83">
-        <v>20121118</v>
+        <v>20140107</v>
       </c>
       <c r="F83">
-        <v>20150519</v>
+        <v>20150811</v>
       </c>
       <c r="H83">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>738</v>
+        <v>673</v>
       </c>
       <c r="B84" t="s">
-        <v>735</v>
+        <v>674</v>
       </c>
       <c r="C84" t="s">
-        <v>743</v>
+        <v>677</v>
       </c>
       <c r="D84" t="s">
         <v>400</v>
       </c>
       <c r="E84">
-        <v>20141214</v>
+        <v>20140916</v>
       </c>
       <c r="F84">
-        <v>20150519</v>
+        <v>20150811</v>
       </c>
       <c r="H84">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>739</v>
+        <v>675</v>
       </c>
       <c r="B85" t="s">
-        <v>740</v>
+        <v>676</v>
       </c>
       <c r="C85" t="s">
-        <v>744</v>
+        <v>678</v>
       </c>
       <c r="D85" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E85">
-        <v>20080129</v>
+        <v>20150414</v>
       </c>
       <c r="F85">
-        <v>20110517</v>
+        <v>20150811</v>
       </c>
       <c r="H85">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>745</v>
+        <v>679</v>
       </c>
       <c r="B86" t="s">
-        <v>746</v>
+        <v>680</v>
       </c>
       <c r="C86" t="s">
-        <v>749</v>
+        <v>681</v>
       </c>
       <c r="D86" t="s">
         <v>397</v>
       </c>
       <c r="E86">
-        <v>20091102</v>
+        <v>20030515</v>
       </c>
       <c r="F86">
-        <v>20110517</v>
+        <v>20070810</v>
       </c>
       <c r="H86">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>747</v>
+        <v>682</v>
       </c>
       <c r="B87" t="s">
-        <v>748</v>
+        <v>683</v>
       </c>
       <c r="C87" t="s">
-        <v>750</v>
+        <v>687</v>
       </c>
       <c r="D87" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E87">
-        <v>20100312</v>
+        <v>20040916</v>
       </c>
       <c r="F87">
-        <v>20110517</v>
+        <v>20070810</v>
       </c>
       <c r="H87">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>751</v>
+        <v>684</v>
       </c>
       <c r="B88" t="s">
-        <v>757</v>
+        <v>685</v>
       </c>
       <c r="C88" t="s">
-        <v>759</v>
+        <v>686</v>
       </c>
       <c r="D88" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E88">
-        <v>20140827</v>
+        <v>20061120</v>
       </c>
       <c r="F88">
-        <v>20151006</v>
+        <v>20070810</v>
       </c>
       <c r="H88">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>752</v>
+        <v>688</v>
       </c>
       <c r="B89" t="s">
-        <v>758</v>
+        <v>691</v>
       </c>
       <c r="C89" t="s">
-        <v>760</v>
+        <v>694</v>
       </c>
       <c r="D89" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E89">
-        <v>20150312</v>
+        <v>20030515</v>
       </c>
       <c r="F89">
-        <v>20151006</v>
+        <v>20070810</v>
       </c>
       <c r="H89">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>753</v>
+        <v>689</v>
       </c>
       <c r="B90" t="s">
-        <v>761</v>
+        <v>692</v>
       </c>
       <c r="C90" t="s">
-        <v>763</v>
+        <v>695</v>
       </c>
       <c r="D90" t="s">
         <v>397</v>
       </c>
       <c r="E90">
-        <v>20140827</v>
+        <v>20040916</v>
       </c>
       <c r="F90">
-        <v>20151006</v>
+        <v>20070810</v>
       </c>
       <c r="H90">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>754</v>
+        <v>690</v>
       </c>
       <c r="B91" t="s">
-        <v>762</v>
+        <v>693</v>
       </c>
       <c r="C91" t="s">
-        <v>764</v>
+        <v>696</v>
       </c>
       <c r="D91" t="s">
         <v>400</v>
       </c>
       <c r="E91">
-        <v>20150312</v>
+        <v>20061120</v>
       </c>
       <c r="F91">
-        <v>20151006</v>
+        <v>20070810</v>
       </c>
       <c r="H91">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>755</v>
+        <v>697</v>
       </c>
       <c r="B92" t="s">
-        <v>765</v>
+        <v>698</v>
       </c>
       <c r="C92" t="s">
-        <v>767</v>
+        <v>699</v>
       </c>
       <c r="D92" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E92">
-        <v>20140827</v>
+        <v>20070616</v>
       </c>
       <c r="F92">
-        <v>20151006</v>
+        <v>20070726</v>
       </c>
       <c r="H92">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>700</v>
+      </c>
+      <c r="B93" t="s">
+        <v>701</v>
+      </c>
+      <c r="C93" t="s">
+        <v>702</v>
+      </c>
+      <c r="D93" t="s">
+        <v>397</v>
+      </c>
+      <c r="E93">
+        <v>20140213</v>
+      </c>
+      <c r="F93">
+        <v>20150911</v>
+      </c>
+      <c r="H93">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>703</v>
+      </c>
+      <c r="B94" t="s">
+        <v>704</v>
+      </c>
+      <c r="C94" t="s">
+        <v>705</v>
+      </c>
+      <c r="D94" t="s">
+        <v>400</v>
+      </c>
+      <c r="E94">
+        <v>20150312</v>
+      </c>
+      <c r="F94">
+        <v>20150911</v>
+      </c>
+      <c r="H94">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>706</v>
+      </c>
+      <c r="B95" t="s">
+        <v>707</v>
+      </c>
+      <c r="C95" t="s">
+        <v>708</v>
+      </c>
+      <c r="D95" t="s">
+        <v>397</v>
+      </c>
+      <c r="E95">
+        <v>20120102</v>
+      </c>
+      <c r="F95">
+        <v>20131122</v>
+      </c>
+      <c r="H95">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>709</v>
+      </c>
+      <c r="B96" t="s">
+        <v>710</v>
+      </c>
+      <c r="C96" t="s">
+        <v>714</v>
+      </c>
+      <c r="D96" t="s">
+        <v>397</v>
+      </c>
+      <c r="E96">
+        <v>20120522</v>
+      </c>
+      <c r="F96">
+        <v>20131122</v>
+      </c>
+      <c r="H96">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>711</v>
+      </c>
+      <c r="B97" t="s">
+        <v>712</v>
+      </c>
+      <c r="C97" t="s">
+        <v>713</v>
+      </c>
+      <c r="D97" t="s">
+        <v>400</v>
+      </c>
+      <c r="E97">
+        <v>20130812</v>
+      </c>
+      <c r="F97">
+        <v>20131122</v>
+      </c>
+      <c r="H97">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>715</v>
+      </c>
+      <c r="B98" t="s">
+        <v>721</v>
+      </c>
+      <c r="C98" t="s">
+        <v>724</v>
+      </c>
+      <c r="D98" t="s">
+        <v>397</v>
+      </c>
+      <c r="E98">
+        <v>20120102</v>
+      </c>
+      <c r="F98">
+        <v>20131122</v>
+      </c>
+      <c r="H98">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>716</v>
+      </c>
+      <c r="B99" t="s">
+        <v>722</v>
+      </c>
+      <c r="C99" t="s">
+        <v>725</v>
+      </c>
+      <c r="D99" t="s">
+        <v>397</v>
+      </c>
+      <c r="E99">
+        <v>20120522</v>
+      </c>
+      <c r="F99">
+        <v>20131122</v>
+      </c>
+      <c r="H99">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>717</v>
+      </c>
+      <c r="B100" t="s">
+        <v>723</v>
+      </c>
+      <c r="C100" t="s">
+        <v>726</v>
+      </c>
+      <c r="D100" t="s">
+        <v>400</v>
+      </c>
+      <c r="E100">
+        <v>20130812</v>
+      </c>
+      <c r="F100">
+        <v>20131122</v>
+      </c>
+      <c r="H100">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>718</v>
+      </c>
+      <c r="B101" t="s">
+        <v>727</v>
+      </c>
+      <c r="C101" t="s">
+        <v>730</v>
+      </c>
+      <c r="D101" t="s">
+        <v>397</v>
+      </c>
+      <c r="E101">
+        <v>20120102</v>
+      </c>
+      <c r="F101">
+        <v>20131122</v>
+      </c>
+      <c r="H101">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>719</v>
+      </c>
+      <c r="B102" t="s">
+        <v>728</v>
+      </c>
+      <c r="C102" t="s">
+        <v>731</v>
+      </c>
+      <c r="D102" t="s">
+        <v>397</v>
+      </c>
+      <c r="E102">
+        <v>20120522</v>
+      </c>
+      <c r="F102">
+        <v>20131122</v>
+      </c>
+      <c r="H102">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>720</v>
+      </c>
+      <c r="B103" t="s">
+        <v>729</v>
+      </c>
+      <c r="C103" t="s">
+        <v>732</v>
+      </c>
+      <c r="D103" t="s">
+        <v>400</v>
+      </c>
+      <c r="E103">
+        <v>20130812</v>
+      </c>
+      <c r="F103">
+        <v>20131122</v>
+      </c>
+      <c r="H103">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>736</v>
+      </c>
+      <c r="B104" t="s">
+        <v>733</v>
+      </c>
+      <c r="C104" t="s">
+        <v>741</v>
+      </c>
+      <c r="D104" t="s">
+        <v>397</v>
+      </c>
+      <c r="E104">
+        <v>20110629</v>
+      </c>
+      <c r="F104">
+        <v>20150519</v>
+      </c>
+      <c r="H104">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>737</v>
+      </c>
+      <c r="B105" t="s">
+        <v>734</v>
+      </c>
+      <c r="C105" t="s">
+        <v>742</v>
+      </c>
+      <c r="D105" t="s">
+        <v>397</v>
+      </c>
+      <c r="E105">
+        <v>20121118</v>
+      </c>
+      <c r="F105">
+        <v>20150519</v>
+      </c>
+      <c r="H105">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>738</v>
+      </c>
+      <c r="B106" t="s">
+        <v>735</v>
+      </c>
+      <c r="C106" t="s">
+        <v>743</v>
+      </c>
+      <c r="D106" t="s">
+        <v>400</v>
+      </c>
+      <c r="E106">
+        <v>20141214</v>
+      </c>
+      <c r="F106">
+        <v>20150519</v>
+      </c>
+      <c r="H106">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>739</v>
+      </c>
+      <c r="B107" t="s">
+        <v>740</v>
+      </c>
+      <c r="C107" t="s">
+        <v>744</v>
+      </c>
+      <c r="D107" t="s">
+        <v>397</v>
+      </c>
+      <c r="E107">
+        <v>20080129</v>
+      </c>
+      <c r="F107">
+        <v>20110517</v>
+      </c>
+      <c r="H107">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>745</v>
+      </c>
+      <c r="B108" t="s">
+        <v>746</v>
+      </c>
+      <c r="C108" t="s">
+        <v>749</v>
+      </c>
+      <c r="D108" t="s">
+        <v>397</v>
+      </c>
+      <c r="E108">
+        <v>20091102</v>
+      </c>
+      <c r="F108">
+        <v>20110517</v>
+      </c>
+      <c r="H108">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>747</v>
+      </c>
+      <c r="B109" t="s">
+        <v>748</v>
+      </c>
+      <c r="C109" t="s">
+        <v>750</v>
+      </c>
+      <c r="D109" t="s">
+        <v>400</v>
+      </c>
+      <c r="E109">
+        <v>20100312</v>
+      </c>
+      <c r="F109">
+        <v>20110517</v>
+      </c>
+      <c r="H109">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>751</v>
+      </c>
+      <c r="B110" t="s">
+        <v>757</v>
+      </c>
+      <c r="C110" t="s">
+        <v>759</v>
+      </c>
+      <c r="D110" t="s">
+        <v>397</v>
+      </c>
+      <c r="E110">
+        <v>20140827</v>
+      </c>
+      <c r="F110">
+        <v>20151006</v>
+      </c>
+      <c r="H110">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>752</v>
+      </c>
+      <c r="B111" t="s">
+        <v>758</v>
+      </c>
+      <c r="C111" t="s">
+        <v>760</v>
+      </c>
+      <c r="D111" t="s">
+        <v>400</v>
+      </c>
+      <c r="E111">
+        <v>20150312</v>
+      </c>
+      <c r="F111">
+        <v>20151006</v>
+      </c>
+      <c r="H111">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>753</v>
+      </c>
+      <c r="B112" t="s">
+        <v>761</v>
+      </c>
+      <c r="C112" t="s">
+        <v>763</v>
+      </c>
+      <c r="D112" t="s">
+        <v>397</v>
+      </c>
+      <c r="E112">
+        <v>20140827</v>
+      </c>
+      <c r="F112">
+        <v>20151006</v>
+      </c>
+      <c r="H112">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>754</v>
+      </c>
+      <c r="B113" t="s">
+        <v>762</v>
+      </c>
+      <c r="C113" t="s">
+        <v>764</v>
+      </c>
+      <c r="D113" t="s">
+        <v>400</v>
+      </c>
+      <c r="E113">
+        <v>20150312</v>
+      </c>
+      <c r="F113">
+        <v>20151006</v>
+      </c>
+      <c r="H113">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>755</v>
+      </c>
+      <c r="B114" t="s">
+        <v>765</v>
+      </c>
+      <c r="C114" t="s">
+        <v>767</v>
+      </c>
+      <c r="D114" t="s">
+        <v>397</v>
+      </c>
+      <c r="E114">
+        <v>20140827</v>
+      </c>
+      <c r="F114">
+        <v>20151006</v>
+      </c>
+      <c r="H114">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>756</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B115" t="s">
         <v>766</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C115" t="s">
         <v>768</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D115" t="s">
         <v>400</v>
       </c>
-      <c r="E93">
+      <c r="E115">
         <v>20150312</v>
       </c>
-      <c r="F93">
+      <c r="F115">
         <v>20151006</v>
       </c>
-      <c r="H93">
+      <c r="H115">
         <v>50</v>
       </c>
     </row>

--- a/Sprint 1/Package 1/Documentation/P01-JE-06_Jeu_etc_CP.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01-JE-06_Jeu_etc_CP.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\Projet_v2\Sprint 1\Package 1\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="633" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="633" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="C tblMode" sheetId="1" r:id="rId1"/>
@@ -2482,54 +2487,36 @@
     <t>NUNS3S01</t>
   </si>
   <si>
-    <t>Naruto Shippuden : Ultimate Ninja Storm Solo 1.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Retrait du personnage Sasuke </t>
   </si>
   <si>
     <t>NUNS3S02</t>
   </si>
   <si>
-    <t>Naruto Shippuden : Ultimate Ninja Storm Solo 1.1</t>
-  </si>
-  <si>
     <t>Ré-intégration du personnage Sasuke, fixer bugs multiples</t>
   </si>
   <si>
     <t>NUNS3ML01</t>
   </si>
   <si>
-    <t>Naruto Shippuden : Ultimate Ninja Storm Multi en local 1.0</t>
-  </si>
-  <si>
     <t>Ajout des combats avec aliés</t>
   </si>
   <si>
     <t>NUNS3ML02</t>
   </si>
   <si>
-    <t>Naruto Shippuden : Ultimate Ninja Storm Multi en local 1.1</t>
-  </si>
-  <si>
     <t>Fixer la taille des maps</t>
   </si>
   <si>
     <t>NUNS3MO01</t>
   </si>
   <si>
-    <t>Naruto Shippuden : Ultimate Ninja Storm Multi en ligne 1.0</t>
-  </si>
-  <si>
     <t>Fixer la connection aux serveurs</t>
   </si>
   <si>
     <t>NUNS3MO02</t>
   </si>
   <si>
-    <t>Naruto Shippuden : Ultimate Ninja Storm Multi en ligne 1.1</t>
-  </si>
-  <si>
     <t>SKYRS01</t>
   </si>
   <si>
@@ -2605,18 +2592,9 @@
     <t>Soul Calibur 5 Multi En Ligne</t>
   </si>
   <si>
-    <t>Naruto Shippuden : Ultimate Ninja Storm 3 Solo</t>
-  </si>
-  <si>
     <t>Jeu d'aventure et de combat, Naruto Shippuden : Ultimate Ninja Storm 3 reprend les bases du gameplay de la série en y ajoutant quelques nouveautés, comme les actions cachées, les combats de horde ou encore les décisions ultimes qui offrent diverses possibilités</t>
   </si>
   <si>
-    <t>Naruto Shippuden : Ultimate Ninja Storm 3 Multi En Local</t>
-  </si>
-  <si>
-    <t>Naruto Shippuden : Ultimate Ninja Storm 3 Multi En Ligne</t>
-  </si>
-  <si>
     <t>The Elder Scrolls V : Skyrim</t>
   </si>
   <si>
@@ -2630,6 +2608,33 @@
   </si>
   <si>
     <t>Jeu de rôle se passant dans un grand monde ouvert, The Elder Scrolls IV : Oblivion permet au joueur d'incarner un héros guerrier. Il peut explorer la carte gigantesque pour découvrir des donjons, vaincre des boss, découvrir des trésors fabuleux, et accomplir des quêtes.</t>
+  </si>
+  <si>
+    <t>Naruto : Ultimate Ninja Storm 3 Solo</t>
+  </si>
+  <si>
+    <t>Naruto : Ultimate Ninja Storm 3 Multi En Local</t>
+  </si>
+  <si>
+    <t>Naruto : Ultimate Ninja Storm 3 Multi En Ligne</t>
+  </si>
+  <si>
+    <t>Naruto : Ultimate Ninja Storm Solo 1.0</t>
+  </si>
+  <si>
+    <t>Naruto : Ultimate Ninja Storm Solo 1.1</t>
+  </si>
+  <si>
+    <t>Naruto : Ultimate Ninja Storm Multi en local 1.0</t>
+  </si>
+  <si>
+    <t>Naruto : Ultimate Ninja Storm Multi en local 1.1</t>
+  </si>
+  <si>
+    <t>Naruto : Ultimate Ninja Storm Multi en ligne 1.0</t>
+  </si>
+  <si>
+    <t>Naruto : Ultimate Ninja Storm Multi en ligne 1.1</t>
   </si>
 </sst>
 </file>
@@ -3111,7 +3116,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6920,10 +6925,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C156"/>
+  <dimension ref="A1:C179"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B70" sqref="B47:B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7303,249 +7308,271 @@
       </c>
       <c r="C46" s="4"/>
     </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <v>15</v>
+      </c>
+    </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B49">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B50">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B51">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B53">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B54">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B55">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <f t="shared" ref="B57:B70" si="0">B55</f>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B59">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B60">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B64">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B65">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B71">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B73">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B75">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B76">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B77">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B78">
         <v>16</v>
@@ -7553,7 +7580,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -7561,7 +7588,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -7569,7 +7596,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B81">
         <v>3</v>
@@ -7577,143 +7604,143 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B82">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B83">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B84">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B88">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B89">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B90">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B94">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B95">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B99">
         <v>12</v>
@@ -7721,383 +7748,383 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B100">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B106">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B107">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B108">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B109">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B112">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B113">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B114">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B115">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B119">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B120">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B121">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B122">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B123">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B124">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B126">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B127">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B128">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B129">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B133">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B134">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B135">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B138">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B139">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B140">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B141">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B142">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B144">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B145">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B146">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B147">
         <v>14</v>
@@ -8105,73 +8132,257 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B148">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B149">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B151">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B152">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B153">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B154">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B155">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
+        <v>47</v>
+      </c>
+      <c r="B156">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>47</v>
+      </c>
+      <c r="B157">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>47</v>
+      </c>
+      <c r="B158">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>48</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>48</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>48</v>
+      </c>
+      <c r="B161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>48</v>
+      </c>
+      <c r="B162">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>48</v>
+      </c>
+      <c r="B163">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>48</v>
+      </c>
+      <c r="B164">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>48</v>
+      </c>
+      <c r="B165">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>49</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>49</v>
+      </c>
+      <c r="B167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>49</v>
+      </c>
+      <c r="B168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>49</v>
+      </c>
+      <c r="B169">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>49</v>
+      </c>
+      <c r="B170">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>49</v>
+      </c>
+      <c r="B171">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>49</v>
+      </c>
+      <c r="B172">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
         <v>50</v>
       </c>
-      <c r="B156">
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>50</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>50</v>
+      </c>
+      <c r="B175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>50</v>
+      </c>
+      <c r="B176">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>50</v>
+      </c>
+      <c r="B177">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>50</v>
+      </c>
+      <c r="B178">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>50</v>
+      </c>
+      <c r="B179">
         <v>16</v>
       </c>
     </row>
@@ -8581,8 +8792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C58" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9042,10 +9253,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -9060,7 +9271,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -9068,10 +9279,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -9086,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -9094,10 +9305,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -9112,7 +9323,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -9120,10 +9331,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -9138,7 +9349,7 @@
         <v>3</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -9146,10 +9357,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -9164,7 +9375,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -9172,10 +9383,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -9190,7 +9401,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -9198,10 +9409,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -9216,7 +9427,7 @@
         <v>3</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -9227,7 +9438,7 @@
         <v>859</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -9242,7 +9453,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -9250,10 +9461,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -9268,7 +9479,7 @@
         <v>2</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -9276,10 +9487,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -9294,7 +9505,7 @@
         <v>3</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -9302,10 +9513,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -9320,7 +9531,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -9328,10 +9539,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -9346,7 +9557,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -9931,8 +10142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J38" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11130,10 +11341,10 @@
         <v>817</v>
       </c>
       <c r="B52" t="s">
+        <v>862</v>
+      </c>
+      <c r="C52" t="s">
         <v>818</v>
-      </c>
-      <c r="C52" t="s">
-        <v>819</v>
       </c>
       <c r="D52" t="s">
         <v>400</v>
@@ -11150,13 +11361,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>819</v>
+      </c>
+      <c r="B53" t="s">
+        <v>863</v>
+      </c>
+      <c r="C53" t="s">
         <v>820</v>
-      </c>
-      <c r="B53" t="s">
-        <v>821</v>
-      </c>
-      <c r="C53" t="s">
-        <v>822</v>
       </c>
       <c r="D53" t="s">
         <v>397</v>
@@ -11173,13 +11384,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B54" t="s">
-        <v>824</v>
+        <v>864</v>
       </c>
       <c r="C54" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D54" t="s">
         <v>400</v>
@@ -11196,13 +11407,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B55" t="s">
-        <v>827</v>
+        <v>865</v>
       </c>
       <c r="C55" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="D55" t="s">
         <v>397</v>
@@ -11219,13 +11430,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B56" t="s">
-        <v>830</v>
+        <v>866</v>
       </c>
       <c r="C56" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="D56" t="s">
         <v>400</v>
@@ -11242,10 +11453,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="B57" t="s">
-        <v>833</v>
+        <v>867</v>
       </c>
       <c r="C57" t="s">
         <v>813</v>
@@ -11265,13 +11476,13 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="B58" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="C58" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="D58" t="s">
         <v>397</v>
@@ -11288,13 +11499,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="B59" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="C59" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="D59" t="s">
         <v>801</v>
@@ -11311,13 +11522,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="B60" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="C60" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="D60" t="s">
         <v>400</v>
@@ -11334,13 +11545,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="B61" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="C61" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="D61" t="s">
         <v>397</v>
